--- a/Civilworks cost/RADP_20_21/Projecttion_input.xlsx
+++ b/Civilworks cost/RADP_20_21/Projecttion_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="10410" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="10410" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="HaorCode" sheetId="9" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Habiganj_Categorical_Projection" sheetId="6" r:id="rId10"/>
     <sheet name="Sunamgonj_Categorical_Projectio" sheetId="10" r:id="rId11"/>
     <sheet name="Sheet2" sheetId="11" r:id="rId12"/>
+    <sheet name="DPP_Item" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hobiganj!$A$1:$J$48</definedName>
@@ -31,7 +32,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">Kishoregnj!$A$1:$O$144</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Netrokona!$A$1:$S$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Netrokona_Categorical_Projectio!$A$1:$P$59</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Structure_Type!$A$1:$C$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Structure_Type!$A$1:$C$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Sunamgonj!$A$1:$N$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">Sunamgonj_Categorical_Projectio!$A$1:$Q$62</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="9">Habiganj_Categorical_Projection!$1:$1</definedName>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2938" uniqueCount="569">
   <si>
     <t>Package Name</t>
   </si>
@@ -749,9 +750,6 @@
     <t>BWDB/Sunam/HFMLIP/PW-06 Dharmapasha Rui Beel (Division-1)</t>
   </si>
   <si>
-    <t>DPP Item</t>
-  </si>
-  <si>
     <t>Initial</t>
   </si>
   <si>
@@ -830,12 +828,6 @@
     <t>REG_R_NEW</t>
   </si>
   <si>
-    <t>Embankment Slope Protection Work</t>
-  </si>
-  <si>
-    <t>EMB_PRO</t>
-  </si>
-  <si>
     <t>Thrashing Floor Construction</t>
   </si>
   <si>
@@ -852,12 +844,6 @@
   </si>
   <si>
     <t>GATE_REP</t>
-  </si>
-  <si>
-    <t>O&amp;M During Construction</t>
-  </si>
-  <si>
-    <t>O&amp;M_DU_CONST</t>
   </si>
   <si>
     <t>Name</t>
@@ -1745,6 +1731,57 @@
   </si>
   <si>
     <t>Payment_30_06_2020</t>
+  </si>
+  <si>
+    <t>DPP_Item</t>
+  </si>
+  <si>
+    <t>Inlet</t>
+  </si>
+  <si>
+    <t>Reg_Rehab_Rehab</t>
+  </si>
+  <si>
+    <t>Reg_CW_Box</t>
+  </si>
+  <si>
+    <t>Khal_Riv_New</t>
+  </si>
+  <si>
+    <t>Khal_Riv_Rehab</t>
+  </si>
+  <si>
+    <t>Full_Emb_Rehab</t>
+  </si>
+  <si>
+    <t>Sub_Emb_Rehab</t>
+  </si>
+  <si>
+    <t>Sub_Emb_Const</t>
+  </si>
+  <si>
+    <t>Reg_Rehab_New</t>
+  </si>
+  <si>
+    <t>Wmg_Office</t>
+  </si>
+  <si>
+    <t>Gate_Repair</t>
+  </si>
+  <si>
+    <t>Thr_Fl_Cost</t>
+  </si>
+  <si>
+    <t>VWD_30_06_2020</t>
+  </si>
+  <si>
+    <t>VWD_30_06_2021</t>
+  </si>
+  <si>
+    <t>Payment_30_06_2021</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2573,6 +2610,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8674,87 +8717,87 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="19" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="66" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="66" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="66" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="19" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="19" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B11" s="65" t="s">
         <v>145</v>
@@ -8762,7 +8805,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="19" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B12" s="65" t="s">
         <v>55</v>
@@ -8770,7 +8813,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="19" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B13" s="65" t="s">
         <v>75</v>
@@ -8778,71 +8821,71 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="19" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="19" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="19" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="19" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="19" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="19" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="19" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="19" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>134</v>
@@ -8850,7 +8893,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B23" s="65" t="s">
         <v>123</v>
@@ -8858,7 +8901,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="19" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B24" s="65" t="s">
         <v>15</v>
@@ -8866,7 +8909,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="19" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B25" s="65" t="s">
         <v>25</v>
@@ -8874,7 +8917,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="19" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B26" s="65" t="s">
         <v>19</v>
@@ -8882,7 +8925,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="19" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B27" s="65" t="s">
         <v>41</v>
@@ -8890,7 +8933,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="19" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B28" s="65" t="s">
         <v>44</v>
@@ -8898,26 +8941,26 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="19" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="19" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B30" s="65" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="19" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B31" s="65" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -9129,7 +9172,7 @@
       <c r="M4" s="111"/>
       <c r="N4" s="111"/>
       <c r="O4" s="106" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="P4" s="133">
         <v>1</v>
@@ -9266,7 +9309,7 @@
       <c r="M7" s="113"/>
       <c r="N7" s="113"/>
       <c r="O7" s="106" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P7" s="133">
         <v>1</v>
@@ -9358,7 +9401,7 @@
       <c r="M9" s="114"/>
       <c r="N9" s="114"/>
       <c r="O9" s="106" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P9" s="133">
         <v>1</v>
@@ -9495,7 +9538,7 @@
       <c r="M12" s="114"/>
       <c r="N12" s="114"/>
       <c r="O12" s="106" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P12" s="133">
         <v>1</v>
@@ -9632,7 +9675,7 @@
       <c r="M15" s="117"/>
       <c r="N15" s="117"/>
       <c r="O15" s="106" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P15" s="133">
         <v>1</v>
@@ -9679,7 +9722,7 @@
       <c r="M16" s="114"/>
       <c r="N16" s="114"/>
       <c r="O16" s="106" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="P16" s="133">
         <v>1</v>
@@ -9722,7 +9765,7 @@
       <c r="M17" s="117"/>
       <c r="N17" s="117"/>
       <c r="O17" s="106" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="P17" s="133">
         <v>1</v>
@@ -9769,7 +9812,7 @@
       <c r="M18" s="31"/>
       <c r="N18" s="31"/>
       <c r="O18" s="106" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P18" s="133">
         <v>1</v>
@@ -9816,7 +9859,7 @@
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
       <c r="O19" s="106" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P19" s="133">
         <v>1</v>
@@ -9863,7 +9906,7 @@
       <c r="M20" s="120"/>
       <c r="N20" s="120"/>
       <c r="O20" s="106" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P20" s="133">
         <v>1</v>
@@ -9910,7 +9953,7 @@
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
       <c r="O21" s="106" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P21" s="133">
         <v>1</v>
@@ -9957,7 +10000,7 @@
       <c r="M22" s="116"/>
       <c r="N22" s="116"/>
       <c r="O22" s="106" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P22" s="133">
         <v>1</v>
@@ -10004,7 +10047,7 @@
       <c r="M23" s="31"/>
       <c r="N23" s="31"/>
       <c r="O23" s="106" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P23" s="133">
         <v>1</v>
@@ -10051,7 +10094,7 @@
       <c r="M24" s="116"/>
       <c r="N24" s="116"/>
       <c r="O24" s="106" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="P24" s="133">
         <v>1</v>
@@ -10143,7 +10186,7 @@
       <c r="M26" s="121"/>
       <c r="N26" s="121"/>
       <c r="O26" s="106" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="P26" s="133">
         <v>1</v>
@@ -10190,7 +10233,7 @@
       <c r="M27" s="120"/>
       <c r="N27" s="120"/>
       <c r="O27" s="107" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="P27" s="133">
         <v>1</v>
@@ -10237,7 +10280,7 @@
       <c r="M28" s="32"/>
       <c r="N28" s="32"/>
       <c r="O28" s="106" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="P28" s="133">
         <v>1</v>
@@ -10689,7 +10732,7 @@
       <c r="M38" s="122"/>
       <c r="N38" s="102"/>
       <c r="O38" s="106" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P38" s="133">
         <v>1</v>
@@ -10871,7 +10914,7 @@
       <c r="M42" s="109"/>
       <c r="N42" s="109"/>
       <c r="O42" s="124" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P42" s="133">
         <v>1</v>
@@ -10963,7 +11006,7 @@
       <c r="M44" s="114"/>
       <c r="N44" s="114"/>
       <c r="O44" s="124" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P44" s="133">
         <v>1</v>
@@ -11236,23 +11279,23 @@
     <row r="54" spans="1:15" ht="31.15" customHeight="1">
       <c r="E54" s="19"/>
       <c r="F54" s="138" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G54" s="138"/>
       <c r="H54" s="138" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="I54" s="138" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="J54" s="138" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K54" s="138" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L54" s="138" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="31.15" customHeight="1">
@@ -11493,7 +11536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D10" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="D10" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
@@ -11568,10 +11611,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="72" t="s">
         <v>324</v>
-      </c>
-      <c r="C2" s="72" t="s">
-        <v>329</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>18</v>
@@ -11609,10 +11652,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>12</v>
@@ -11650,7 +11693,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C4" s="72" t="s">
         <v>186</v>
@@ -11691,7 +11734,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C5" s="72" t="s">
         <v>187</v>
@@ -11732,7 +11775,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C6" s="72" t="s">
         <v>188</v>
@@ -11773,7 +11816,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C7" s="72" t="s">
         <v>189</v>
@@ -11814,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C8" s="72" t="s">
         <v>185</v>
@@ -11855,10 +11898,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>18</v>
@@ -11890,7 +11933,7 @@
       <c r="N9" s="69"/>
       <c r="O9" s="69"/>
       <c r="P9" s="82" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="34" customFormat="1" ht="34.5" customHeight="1">
@@ -11898,10 +11941,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>18</v>
@@ -11933,7 +11976,7 @@
       <c r="N10" s="69"/>
       <c r="O10" s="69"/>
       <c r="P10" s="82" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="34" customFormat="1" ht="34.5" customHeight="1">
@@ -11941,7 +11984,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C11" s="72" t="s">
         <v>190</v>
@@ -11982,7 +12025,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C12" s="72" t="s">
         <v>191</v>
@@ -12023,7 +12066,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C13" s="72" t="s">
         <v>192</v>
@@ -12064,7 +12107,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C14" s="72" t="s">
         <v>168</v>
@@ -12105,7 +12148,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C15" s="72" t="s">
         <v>193</v>
@@ -12146,7 +12189,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C16" s="72" t="s">
         <v>194</v>
@@ -12187,7 +12230,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C17" s="72" t="s">
         <v>195</v>
@@ -12228,7 +12271,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C18" s="72" t="s">
         <v>196</v>
@@ -12269,7 +12312,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C19" s="72" t="s">
         <v>197</v>
@@ -12310,7 +12353,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="92" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C20" s="72" t="s">
         <v>198</v>
@@ -12351,7 +12394,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="92" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C21" s="72" t="s">
         <v>199</v>
@@ -12392,7 +12435,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="92" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C22" s="72" t="s">
         <v>200</v>
@@ -12433,7 +12476,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C23" s="72" t="s">
         <v>201</v>
@@ -12474,7 +12517,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C24" s="72" t="s">
         <v>202</v>
@@ -12509,7 +12552,7 @@
       <c r="N24" s="31"/>
       <c r="O24" s="31"/>
       <c r="P24" s="84" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="34" customFormat="1" ht="44.25" customHeight="1">
@@ -12517,10 +12560,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>57</v>
@@ -12558,10 +12601,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C26" s="72" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>57</v>
@@ -12599,7 +12642,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C27" s="72" t="s">
         <v>203</v>
@@ -12640,7 +12683,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C28" s="72" t="s">
         <v>204</v>
@@ -12682,7 +12725,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C29" s="72" t="s">
         <v>205</v>
@@ -12724,7 +12767,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C30" s="72" t="s">
         <v>206</v>
@@ -12766,7 +12809,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C31" s="72" t="s">
         <v>209</v>
@@ -12808,7 +12851,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C32" s="72" t="s">
         <v>210</v>
@@ -12850,7 +12893,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C33" s="72" t="s">
         <v>212</v>
@@ -12892,7 +12935,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C34" s="72" t="s">
         <v>213</v>
@@ -12934,7 +12977,7 @@
         <v>37</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C35" s="72" t="s">
         <v>215</v>
@@ -12976,7 +13019,7 @@
         <v>38</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C36" s="72" t="s">
         <v>216</v>
@@ -13017,7 +13060,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C37" s="88" t="s">
         <v>218</v>
@@ -13058,7 +13101,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C38" s="88" t="s">
         <v>219</v>
@@ -13099,7 +13142,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C39" s="88" t="s">
         <v>220</v>
@@ -13141,7 +13184,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="73" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C40" s="79" t="s">
         <v>222</v>
@@ -13183,7 +13226,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="73" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C41" s="79" t="s">
         <v>223</v>
@@ -13225,7 +13268,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="73" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C42" s="74" t="s">
         <v>208</v>
@@ -13260,7 +13303,7 @@
       <c r="N42" s="31"/>
       <c r="O42" s="31"/>
       <c r="P42" s="86" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q42" s="31"/>
     </row>
@@ -13269,7 +13312,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="73" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C43" s="74" t="s">
         <v>211</v>
@@ -13304,7 +13347,7 @@
       <c r="N43" s="30"/>
       <c r="O43" s="91"/>
       <c r="P43" s="84" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q43" s="31"/>
     </row>
@@ -13313,7 +13356,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="73" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C44" s="74" t="s">
         <v>214</v>
@@ -13348,7 +13391,7 @@
       <c r="N44" s="31"/>
       <c r="O44" s="31"/>
       <c r="P44" s="86" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="Q44" s="31"/>
     </row>
@@ -13357,7 +13400,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="73" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C45" s="74" t="s">
         <v>217</v>
@@ -13392,7 +13435,7 @@
       <c r="N45" s="90"/>
       <c r="O45" s="90"/>
       <c r="P45" s="82" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Q45" s="31"/>
     </row>
@@ -13401,7 +13444,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="73" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C46" s="79" t="s">
         <v>221</v>
@@ -13436,7 +13479,7 @@
       <c r="N46" s="91"/>
       <c r="O46" s="91"/>
       <c r="P46" s="82" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Q46" s="31"/>
     </row>
@@ -13445,7 +13488,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="73" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C47" s="79" t="s">
         <v>207</v>
@@ -13487,7 +13530,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="73" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C48" s="79" t="s">
         <v>168</v>
@@ -13525,13 +13568,13 @@
       <c r="Q48" s="31"/>
     </row>
     <row r="49" spans="1:16" ht="43.15" customHeight="1">
-      <c r="A49" s="187" t="s">
+      <c r="A49" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="187"/>
-      <c r="C49" s="187"/>
-      <c r="D49" s="187"/>
-      <c r="E49" s="187"/>
+      <c r="B49" s="189"/>
+      <c r="C49" s="189"/>
+      <c r="D49" s="189"/>
+      <c r="E49" s="189"/>
       <c r="F49" s="44">
         <f>SUM(F2:F48)</f>
         <v>8936.8330894957307</v>
@@ -13602,24 +13645,24 @@
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
       <c r="F52" s="46" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
       <c r="I52" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="J52" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="K52" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="L52" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="M52" s="46" t="s">
         <v>342</v>
-      </c>
-      <c r="J52" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="K52" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="L52" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="M52" s="46" t="s">
-        <v>347</v>
       </c>
       <c r="N52" s="139"/>
       <c r="O52" s="19"/>
@@ -13627,7 +13670,7 @@
     </row>
     <row r="53" spans="1:16" ht="42.6" customHeight="1">
       <c r="E53" s="96" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F53" s="46">
         <f>SUMIF($B$2:$B$48,E53,$F$2:$F$48)</f>
@@ -13658,7 +13701,7 @@
     </row>
     <row r="54" spans="1:16" ht="42.6" customHeight="1">
       <c r="E54" s="46" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F54" s="46">
         <f t="shared" ref="F54:F58" si="1">SUMIF($B$2:$B$48,E54,$F$2:$F$48)</f>
@@ -13689,7 +13732,7 @@
     </row>
     <row r="55" spans="1:16" ht="42.6" customHeight="1">
       <c r="E55" s="46" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F55" s="46">
         <f t="shared" si="1"/>
@@ -13720,7 +13763,7 @@
     </row>
     <row r="56" spans="1:16" ht="42.6" customHeight="1">
       <c r="E56" s="46" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F56" s="46">
         <f t="shared" si="1"/>
@@ -13751,7 +13794,7 @@
     </row>
     <row r="57" spans="1:16" ht="42.6" customHeight="1">
       <c r="E57" s="46" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F57" s="46">
         <f t="shared" si="1"/>
@@ -13782,7 +13825,7 @@
     </row>
     <row r="58" spans="1:16" ht="42.6" customHeight="1">
       <c r="E58" s="140" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F58" s="46">
         <f t="shared" si="1"/>
@@ -13814,7 +13857,7 @@
     <row r="59" spans="1:16" ht="42.6" customHeight="1">
       <c r="D59" s="93"/>
       <c r="E59" s="46" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F59" s="46">
         <f>SUM(F53:F58)</f>
@@ -13879,70 +13922,70 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="B8" s="97" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D8" s="98" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E8" s="98" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F8" s="98" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G8" s="98" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H8" s="99" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="97" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C9" s="98">
         <v>1462.0009884999999</v>
@@ -13966,7 +14009,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="97" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C10" s="98">
         <v>1193.75</v>
@@ -13990,7 +14033,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="97" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C11" s="98">
         <v>1682.1285738000001</v>
@@ -14014,7 +14057,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" s="97" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C12" s="98">
         <v>1564.32</v>
@@ -14038,7 +14081,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="B13" s="97" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C13" s="98">
         <v>1457.9869114999999</v>
@@ -14062,7 +14105,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="B14" s="97" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C14" s="98">
         <v>1576.6466156957358</v>
@@ -14086,28 +14129,28 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="97" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C35" s="131" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D35" s="131" t="s">
+        <v>337</v>
+      </c>
+      <c r="E35" s="131" t="s">
+        <v>338</v>
+      </c>
+      <c r="F35" s="131" t="s">
+        <v>339</v>
+      </c>
+      <c r="G35" s="131" t="s">
+        <v>340</v>
+      </c>
+      <c r="H35" s="131" t="s">
+        <v>354</v>
+      </c>
+      <c r="I35" s="131" t="s">
         <v>342</v>
-      </c>
-      <c r="E35" s="131" t="s">
-        <v>343</v>
-      </c>
-      <c r="F35" s="131" t="s">
-        <v>344</v>
-      </c>
-      <c r="G35" s="131" t="s">
-        <v>345</v>
-      </c>
-      <c r="H35" s="131" t="s">
-        <v>359</v>
-      </c>
-      <c r="I35" s="131" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="36" spans="2:9">
@@ -14281,22 +14324,22 @@
     <row r="66" spans="2:8">
       <c r="B66" s="131"/>
       <c r="C66" s="131" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D66" s="131" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E66" s="131" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F66" s="131" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G66" s="131" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H66" s="131" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="2:8">
@@ -14440,6 +14483,177 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="170" t="s">
+        <v>552</v>
+      </c>
+      <c r="B1" s="170" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="170" t="s">
+        <v>553</v>
+      </c>
+      <c r="B2" s="170"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="170">
+        <v>291.81</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="170" t="s">
+        <v>554</v>
+      </c>
+      <c r="B3" s="170"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="170">
+        <v>0</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="170" t="s">
+        <v>555</v>
+      </c>
+      <c r="B4" s="170"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="170">
+        <v>6503.97</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="170" t="s">
+        <v>556</v>
+      </c>
+      <c r="B5" s="170"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="170">
+        <v>2546.54</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="170" t="s">
+        <v>557</v>
+      </c>
+      <c r="B6" s="170"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="170">
+        <v>51.09</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="170" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7" s="170"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="170">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="170" t="s">
+        <v>559</v>
+      </c>
+      <c r="B8" s="170"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="170">
+        <v>0</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="170" t="s">
+        <v>560</v>
+      </c>
+      <c r="B9" s="170"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="170">
+        <v>5833.04</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="170" t="s">
+        <v>561</v>
+      </c>
+      <c r="B10" s="170"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="170">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="170" t="s">
+        <v>564</v>
+      </c>
+      <c r="B11" s="170"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="170">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="170" t="s">
+        <v>562</v>
+      </c>
+      <c r="B12" s="170"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="170">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="170" t="s">
+        <v>563</v>
+      </c>
+      <c r="B13" s="170"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="170">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -14448,10 +14662,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14459,244 +14673,312 @@
     <col min="1" max="1" width="49.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" s="65" t="s">
+        <v>568</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="C1" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="D1" s="170" t="s">
+        <v>551</v>
+      </c>
+      <c r="E1" s="184" t="s">
+        <v>552</v>
+      </c>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="D1" s="170" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="65" t="s">
+      <c r="B2" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="C2" s="65">
+        <v>1</v>
+      </c>
+      <c r="D2" s="133">
+        <v>291.81</v>
+      </c>
+      <c r="E2" s="170" t="s">
+        <v>553</v>
+      </c>
+      <c r="H2" s="93"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="93"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="C2" s="65">
-        <v>1</v>
-      </c>
-      <c r="D2" s="170">
-        <v>291.81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="65" t="s">
+      <c r="B3" s="65" t="s">
         <v>230</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>231</v>
       </c>
       <c r="C3" s="65">
         <v>2</v>
       </c>
-      <c r="D3" s="170">
+      <c r="D3" s="133">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="170" t="s">
+        <v>554</v>
+      </c>
+      <c r="H3" s="93"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="93"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>232</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>233</v>
       </c>
       <c r="C4" s="65">
         <v>3</v>
       </c>
-      <c r="D4" s="170">
+      <c r="D4" s="133">
         <v>6503.97</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="170" t="s">
+        <v>555</v>
+      </c>
+      <c r="H4" s="93"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="93"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" s="65" t="s">
         <v>234</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>235</v>
       </c>
       <c r="C5" s="65">
         <v>4</v>
       </c>
-      <c r="D5" s="170">
+      <c r="D5" s="133">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="170" t="s">
+        <v>555</v>
+      </c>
+      <c r="H5" s="93"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B6" s="65" t="s">
         <v>236</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>237</v>
       </c>
       <c r="C6" s="65">
         <v>5</v>
       </c>
-      <c r="D6" s="170">
+      <c r="D6" s="133">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="170" t="s">
+        <v>555</v>
+      </c>
+      <c r="H6" s="93"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="93"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" s="65" t="s">
         <v>238</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>239</v>
       </c>
       <c r="C7" s="65">
         <v>6</v>
       </c>
-      <c r="D7" s="170">
+      <c r="D7" s="133">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="170" t="s">
+        <v>555</v>
+      </c>
+      <c r="H7" s="93"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="93"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="65" t="s">
         <v>240</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>241</v>
       </c>
       <c r="C8" s="65">
         <v>7</v>
       </c>
-      <c r="D8" s="170">
+      <c r="D8" s="133">
         <v>2546.54</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="170" t="s">
+        <v>556</v>
+      </c>
+      <c r="H8" s="93"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="93"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="65" t="s">
         <v>242</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>243</v>
       </c>
       <c r="C9" s="65">
         <v>8</v>
       </c>
-      <c r="D9" s="170">
+      <c r="D9" s="133">
         <v>51.09</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="170" t="s">
+        <v>557</v>
+      </c>
+      <c r="H9" s="93"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="93"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="65" t="s">
         <v>244</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>245</v>
       </c>
       <c r="C10" s="65">
         <v>9</v>
       </c>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="31"/>
+      <c r="E10" s="170" t="s">
+        <v>558</v>
+      </c>
+      <c r="H10" s="93"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="93"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="65" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="65" t="s">
         <v>246</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>247</v>
       </c>
       <c r="C11" s="65">
         <v>10</v>
       </c>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="51" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="170" t="s">
+        <v>559</v>
+      </c>
+      <c r="H11" s="93"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="93"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="133" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12" s="133" t="s">
         <v>248</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="C12" s="133">
+        <v>11</v>
+      </c>
+      <c r="D12" s="133">
+        <v>5833.04</v>
+      </c>
+      <c r="E12" s="170" t="s">
+        <v>560</v>
+      </c>
+      <c r="H12" s="93"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="93"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="C12" s="51">
-        <v>11</v>
-      </c>
-      <c r="D12" s="170">
-        <v>5833.04</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="65" t="s">
+      <c r="B13" s="65" t="s">
         <v>250</v>
-      </c>
-      <c r="B13" s="65" t="s">
-        <v>251</v>
       </c>
       <c r="C13" s="65">
         <v>12</v>
       </c>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="31"/>
+      <c r="E13" s="170" t="s">
+        <v>561</v>
+      </c>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="C14" s="65">
+        <v>14</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="170" t="s">
+        <v>564</v>
+      </c>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="65">
-        <v>13</v>
-      </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="65" t="s">
+      <c r="B15" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="C15" s="65">
+        <v>15</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="170" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="C15" s="65">
-        <v>14</v>
-      </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="65" t="s">
+      <c r="B16" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="65" t="s">
-        <v>257</v>
-      </c>
       <c r="C16" s="65">
-        <v>15</v>
-      </c>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>259</v>
-      </c>
-      <c r="C17" s="65">
         <v>16</v>
       </c>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="B18" s="65" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="65">
-        <v>17</v>
-      </c>
-      <c r="D18" s="19"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="170" t="s">
+        <v>563</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16517,10 +16799,10 @@
         <v>119</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -16545,10 +16827,10 @@
     </row>
     <row r="2" spans="1:15" s="14" customFormat="1" ht="42.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>12</v>
@@ -16566,7 +16848,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="173" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="I2" s="171" t="s">
         <v>14</v>
@@ -16576,20 +16858,20 @@
       </c>
       <c r="K2" s="21"/>
       <c r="L2" s="170" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N2" s="47"/>
       <c r="O2" s="47"/>
     </row>
     <row r="3" spans="1:15" s="14" customFormat="1" ht="41.25" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>12</v>
@@ -16607,7 +16889,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="173" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="I3" s="171" t="s">
         <v>14</v>
@@ -16617,20 +16899,20 @@
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="170" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N3" s="47"/>
       <c r="O3" s="47"/>
     </row>
     <row r="4" spans="1:15" s="14" customFormat="1" ht="37.5" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>12</v>
@@ -16648,7 +16930,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="173" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="I4" s="171" t="s">
         <v>14</v>
@@ -16658,20 +16940,20 @@
       </c>
       <c r="K4" s="21"/>
       <c r="L4" s="170" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N4" s="47"/>
       <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>12</v>
@@ -16689,7 +16971,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="173" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="I5" s="171" t="s">
         <v>14</v>
@@ -16699,20 +16981,20 @@
       </c>
       <c r="K5" s="21"/>
       <c r="L5" s="170" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N5" s="47"/>
       <c r="O5" s="47"/>
     </row>
     <row r="6" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A6" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>12</v>
@@ -16730,7 +17012,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="173" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>14</v>
@@ -16740,20 +17022,20 @@
       </c>
       <c r="K6" s="21"/>
       <c r="L6" s="21" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N6" s="47"/>
       <c r="O6" s="47"/>
     </row>
     <row r="7" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>12</v>
@@ -16771,7 +17053,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="173" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>14</v>
@@ -16781,20 +17063,20 @@
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="170" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N7" s="47"/>
       <c r="O7" s="47"/>
     </row>
     <row r="8" spans="1:15" s="14" customFormat="1" ht="43.15" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>57</v>
@@ -16812,7 +17094,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="173" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="159">
@@ -16820,20 +17102,20 @@
       </c>
       <c r="K8" s="21"/>
       <c r="L8" s="8" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N8" s="47"/>
       <c r="O8" s="47"/>
     </row>
     <row r="9" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>12</v>
@@ -16851,7 +17133,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="173" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="159">
@@ -16859,20 +17141,20 @@
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N9" s="47"/>
       <c r="O9" s="47"/>
     </row>
     <row r="10" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>12</v>
@@ -16890,7 +17172,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="173" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="159">
@@ -16898,20 +17180,20 @@
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N10" s="47"/>
       <c r="O10" s="47"/>
     </row>
     <row r="11" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>12</v>
@@ -16929,7 +17211,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="173" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="159">
@@ -16937,20 +17219,20 @@
       </c>
       <c r="K11" s="21"/>
       <c r="L11" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N11" s="47"/>
       <c r="O11" s="47"/>
     </row>
     <row r="12" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>12</v>
@@ -16968,7 +17250,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="173" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="159">
@@ -16976,20 +17258,20 @@
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N12" s="47"/>
       <c r="O12" s="47"/>
     </row>
     <row r="13" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>12</v>
@@ -17007,7 +17289,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="173" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="159">
@@ -17015,20 +17297,20 @@
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N13" s="47"/>
       <c r="O13" s="47"/>
     </row>
     <row r="14" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>12</v>
@@ -17046,7 +17328,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="173" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="159">
@@ -17054,20 +17336,20 @@
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N14" s="47"/>
       <c r="O14" s="47"/>
     </row>
     <row r="15" spans="1:15" s="14" customFormat="1" ht="39" customHeight="1">
       <c r="A15" s="19" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>57</v>
@@ -17085,7 +17367,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="173" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="159">
@@ -17093,20 +17375,20 @@
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N15" s="47"/>
       <c r="O15" s="47"/>
     </row>
     <row r="16" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A16" s="19" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>12</v>
@@ -17124,7 +17406,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="173" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="159">
@@ -17132,20 +17414,20 @@
       </c>
       <c r="K16" s="21"/>
       <c r="L16" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N16" s="47"/>
       <c r="O16" s="47"/>
     </row>
     <row r="17" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>12</v>
@@ -17161,7 +17443,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="173" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="159">
@@ -17169,20 +17451,20 @@
       </c>
       <c r="K17" s="21"/>
       <c r="L17" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N17" s="47"/>
       <c r="O17" s="47"/>
     </row>
     <row r="18" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>57</v>
@@ -17200,7 +17482,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="173" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="159">
@@ -17208,20 +17490,20 @@
       </c>
       <c r="K18" s="21"/>
       <c r="L18" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N18" s="47"/>
       <c r="O18" s="47"/>
     </row>
     <row r="19" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A19" s="19" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>57</v>
@@ -17239,7 +17521,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="173" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="159">
@@ -17247,20 +17529,20 @@
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N19" s="47"/>
       <c r="O19" s="47"/>
     </row>
     <row r="20" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A20" s="19" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>57</v>
@@ -17278,7 +17560,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="173" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="159">
@@ -17286,20 +17568,20 @@
       </c>
       <c r="K20" s="21"/>
       <c r="L20" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N20" s="47"/>
       <c r="O20" s="47"/>
     </row>
     <row r="21" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A21" s="19" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>12</v>
@@ -17317,7 +17599,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="173" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="159">
@@ -17325,20 +17607,20 @@
       </c>
       <c r="K21" s="21"/>
       <c r="L21" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N21" s="47"/>
       <c r="O21" s="47"/>
     </row>
     <row r="22" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A22" s="19" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>57</v>
@@ -17356,7 +17638,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="173" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="159">
@@ -17364,20 +17646,20 @@
       </c>
       <c r="K22" s="21"/>
       <c r="L22" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N22" s="47"/>
       <c r="O22" s="47"/>
     </row>
     <row r="23" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
       <c r="A23" s="19" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>12</v>
@@ -17395,7 +17677,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="173" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="159">
@@ -17403,20 +17685,20 @@
       </c>
       <c r="K23" s="21"/>
       <c r="L23" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N23" s="47"/>
       <c r="O23" s="47"/>
     </row>
     <row r="24" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
       <c r="A24" s="19" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>12</v>
@@ -17434,7 +17716,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="173" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="159">
@@ -17442,20 +17724,20 @@
       </c>
       <c r="K24" s="21"/>
       <c r="L24" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N24" s="47"/>
       <c r="O24" s="47"/>
     </row>
     <row r="25" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
       <c r="A25" s="19" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>12</v>
@@ -17473,7 +17755,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="173" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="159">
@@ -17481,20 +17763,20 @@
       </c>
       <c r="K25" s="21"/>
       <c r="L25" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N25" s="47"/>
       <c r="O25" s="47"/>
     </row>
     <row r="26" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
       <c r="A26" s="19" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>12</v>
@@ -17512,7 +17794,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="173" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="I26" s="20"/>
       <c r="J26" s="159">
@@ -17520,20 +17802,20 @@
       </c>
       <c r="K26" s="21"/>
       <c r="L26" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N26" s="47"/>
       <c r="O26" s="47"/>
     </row>
     <row r="27" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
       <c r="A27" s="19" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>12</v>
@@ -17551,7 +17833,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="173" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="I27" s="20"/>
       <c r="J27" s="159">
@@ -17559,20 +17841,20 @@
       </c>
       <c r="K27" s="21"/>
       <c r="L27" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N27" s="47"/>
       <c r="O27" s="47"/>
     </row>
     <row r="28" spans="1:15" s="163" customFormat="1" ht="32.450000000000003" customHeight="1">
       <c r="A28" s="19" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>12</v>
@@ -17590,7 +17872,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="173" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="I28" s="20"/>
       <c r="J28" s="159">
@@ -17598,20 +17880,20 @@
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
     </row>
     <row r="29" spans="1:15" s="163" customFormat="1" ht="34.15" customHeight="1">
       <c r="A29" s="19" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>12</v>
@@ -17629,7 +17911,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="173" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="I29" s="20"/>
       <c r="J29" s="159">
@@ -17637,20 +17919,20 @@
       </c>
       <c r="K29" s="21"/>
       <c r="L29" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N29" s="47"/>
       <c r="O29" s="47"/>
     </row>
     <row r="30" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>57</v>
@@ -17668,7 +17950,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="173" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I30" s="20"/>
       <c r="J30" s="159">
@@ -17676,20 +17958,20 @@
       </c>
       <c r="K30" s="21"/>
       <c r="L30" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N30" s="47"/>
       <c r="O30" s="47"/>
     </row>
     <row r="31" spans="1:15" s="163" customFormat="1" ht="53.1" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>12</v>
@@ -17707,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="173" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I31" s="20"/>
       <c r="J31" s="159">
@@ -17715,20 +17997,20 @@
       </c>
       <c r="K31" s="21"/>
       <c r="L31" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N31" s="47"/>
       <c r="O31" s="47"/>
     </row>
     <row r="32" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>12</v>
@@ -17746,7 +18028,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="173" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="159">
@@ -17754,20 +18036,20 @@
       </c>
       <c r="K32" s="21"/>
       <c r="L32" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N32" s="47"/>
       <c r="O32" s="47"/>
     </row>
     <row r="33" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>12</v>
@@ -17785,7 +18067,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="173" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I33" s="20"/>
       <c r="J33" s="159">
@@ -17793,20 +18075,20 @@
       </c>
       <c r="K33" s="21"/>
       <c r="L33" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N33" s="47"/>
       <c r="O33" s="47"/>
     </row>
     <row r="34" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>12</v>
@@ -17824,7 +18106,7 @@
         <v>1</v>
       </c>
       <c r="H34" s="173" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="159">
@@ -17832,20 +18114,20 @@
       </c>
       <c r="K34" s="21"/>
       <c r="L34" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N34" s="47"/>
       <c r="O34" s="47"/>
     </row>
     <row r="35" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A35" s="8" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>12</v>
@@ -17863,7 +18145,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="173" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="159">
@@ -17871,20 +18153,20 @@
       </c>
       <c r="K35" s="21"/>
       <c r="L35" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N35" s="47"/>
       <c r="O35" s="47"/>
     </row>
     <row r="36" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>12</v>
@@ -17902,7 +18184,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="173" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="159">
@@ -17910,20 +18192,20 @@
       </c>
       <c r="K36" s="21"/>
       <c r="L36" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N36" s="47"/>
       <c r="O36" s="47"/>
     </row>
     <row r="37" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>12</v>
@@ -17941,7 +18223,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="173" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="159">
@@ -17949,20 +18231,20 @@
       </c>
       <c r="K37" s="21"/>
       <c r="L37" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N37" s="47"/>
       <c r="O37" s="47"/>
     </row>
     <row r="38" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>12</v>
@@ -17980,7 +18262,7 @@
         <v>2.16</v>
       </c>
       <c r="H38" s="173" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="159">
@@ -17988,20 +18270,20 @@
       </c>
       <c r="K38" s="21"/>
       <c r="L38" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N38" s="47"/>
       <c r="O38" s="47"/>
     </row>
     <row r="39" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>12</v>
@@ -18019,7 +18301,7 @@
         <v>0.4</v>
       </c>
       <c r="H39" s="173" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="159">
@@ -18027,20 +18309,20 @@
       </c>
       <c r="K39" s="21"/>
       <c r="L39" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N39" s="47"/>
       <c r="O39" s="47"/>
     </row>
     <row r="40" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>12</v>
@@ -18058,7 +18340,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="173" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="159">
@@ -18066,20 +18348,20 @@
       </c>
       <c r="K40" s="21"/>
       <c r="L40" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N40" s="47"/>
       <c r="O40" s="47"/>
     </row>
     <row r="41" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>12</v>
@@ -18097,7 +18379,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="173" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I41" s="20"/>
       <c r="J41" s="159">
@@ -18105,20 +18387,20 @@
       </c>
       <c r="K41" s="21"/>
       <c r="L41" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M41" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N41" s="47"/>
       <c r="O41" s="47"/>
     </row>
     <row r="42" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>12</v>
@@ -18136,7 +18418,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="173" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I42" s="20"/>
       <c r="J42" s="159">
@@ -18144,20 +18426,20 @@
       </c>
       <c r="K42" s="21"/>
       <c r="L42" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N42" s="47"/>
       <c r="O42" s="47"/>
     </row>
     <row r="43" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>12</v>
@@ -18175,7 +18457,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="173" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I43" s="20"/>
       <c r="J43" s="159">
@@ -18183,20 +18465,20 @@
       </c>
       <c r="K43" s="21"/>
       <c r="L43" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N43" s="47"/>
       <c r="O43" s="47"/>
     </row>
     <row r="44" spans="1:15" s="14" customFormat="1" ht="43.15" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>12</v>
@@ -18214,7 +18496,7 @@
         <v>0.2</v>
       </c>
       <c r="H44" s="173" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I44" s="20"/>
       <c r="J44" s="159">
@@ -18222,20 +18504,20 @@
       </c>
       <c r="K44" s="21"/>
       <c r="L44" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N44" s="47"/>
       <c r="O44" s="47"/>
     </row>
     <row r="45" spans="1:15" s="14" customFormat="1" ht="38.1" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>12</v>
@@ -18251,7 +18533,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="173" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="I45" s="20"/>
       <c r="J45" s="159">
@@ -18259,20 +18541,20 @@
       </c>
       <c r="K45" s="21"/>
       <c r="L45" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N45" s="47"/>
       <c r="O45" s="47"/>
     </row>
     <row r="46" spans="1:15" s="14" customFormat="1" ht="51" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>57</v>
@@ -18290,7 +18572,7 @@
         <v>1</v>
       </c>
       <c r="H46" s="172" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="159">
@@ -18298,20 +18580,20 @@
       </c>
       <c r="K46" s="21"/>
       <c r="L46" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N46" s="47"/>
       <c r="O46" s="47"/>
     </row>
     <row r="47" spans="1:15" s="14" customFormat="1" ht="46.5" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>57</v>
@@ -18329,7 +18611,7 @@
         <v>1</v>
       </c>
       <c r="H47" s="172" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="159">
@@ -18337,20 +18619,20 @@
       </c>
       <c r="K47" s="21"/>
       <c r="L47" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N47" s="47"/>
       <c r="O47" s="47"/>
     </row>
     <row r="48" spans="1:15" s="14" customFormat="1" ht="52.5" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>57</v>
@@ -18368,7 +18650,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="172" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="159">
@@ -18376,20 +18658,20 @@
       </c>
       <c r="K48" s="21"/>
       <c r="L48" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M48" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="N48" s="47"/>
       <c r="O48" s="47"/>
     </row>
     <row r="49" spans="1:13" ht="53.1" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>57</v>
@@ -18407,7 +18689,7 @@
         <v>1</v>
       </c>
       <c r="H49" s="172" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="159">
@@ -18415,15 +18697,15 @@
       </c>
       <c r="K49" s="21"/>
       <c r="L49" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="53.1" customHeight="1">
       <c r="A50" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>201</v>
@@ -18444,7 +18726,7 @@
         <v>0.65</v>
       </c>
       <c r="H50" s="174" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="159">
@@ -18452,18 +18734,18 @@
       </c>
       <c r="K50" s="21"/>
       <c r="L50" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="53.1" customHeight="1">
       <c r="A51" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>57</v>
@@ -18481,7 +18763,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="172" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="159">
@@ -18489,18 +18771,18 @@
       </c>
       <c r="K51" s="21"/>
       <c r="L51" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="61.15" customHeight="1">
       <c r="A52" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>12</v>
@@ -18518,7 +18800,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="172" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="159">
@@ -18526,18 +18808,18 @@
       </c>
       <c r="K52" s="21"/>
       <c r="L52" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="58.15" customHeight="1">
       <c r="A53" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>12</v>
@@ -18553,7 +18835,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="118" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="159">
@@ -18561,18 +18843,18 @@
       </c>
       <c r="K53" s="21"/>
       <c r="L53" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M53" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="58.15" customHeight="1">
       <c r="A54" s="8" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>57</v>
@@ -18590,7 +18872,7 @@
         <v>1</v>
       </c>
       <c r="H54" s="172" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="159">
@@ -18598,18 +18880,18 @@
       </c>
       <c r="K54" s="21"/>
       <c r="L54" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="49.5" customHeight="1">
       <c r="A55" s="8" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>12</v>
@@ -18627,7 +18909,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="172" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="159">
@@ -18635,18 +18917,18 @@
       </c>
       <c r="K55" s="21"/>
       <c r="L55" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="52.5" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>57</v>
@@ -18664,7 +18946,7 @@
         <v>1</v>
       </c>
       <c r="H56" s="172" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="159">
@@ -18672,18 +18954,18 @@
       </c>
       <c r="K56" s="21"/>
       <c r="L56" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="56.1" customHeight="1">
       <c r="A57" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>57</v>
@@ -18701,7 +18983,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="172" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="I57" s="20"/>
       <c r="J57" s="159">
@@ -18709,18 +18991,18 @@
       </c>
       <c r="K57" s="21"/>
       <c r="L57" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M57" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="43.5" customHeight="1">
       <c r="A58" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>12</v>
@@ -18738,7 +19020,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="175" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="159">
@@ -18746,18 +19028,18 @@
       </c>
       <c r="K58" s="21"/>
       <c r="L58" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="43.5" customHeight="1">
       <c r="A59" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>12</v>
@@ -18775,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="H59" s="172" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="159">
@@ -18783,18 +19065,18 @@
       </c>
       <c r="K59" s="21"/>
       <c r="L59" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M59" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="43.5" customHeight="1">
       <c r="A60" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>12</v>
@@ -18812,7 +19094,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="172" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="I60" s="20"/>
       <c r="J60" s="159">
@@ -18820,18 +19102,18 @@
       </c>
       <c r="K60" s="21"/>
       <c r="L60" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M60" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="43.5" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>12</v>
@@ -18849,7 +19131,7 @@
         <v>1</v>
       </c>
       <c r="H61" s="172" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="I61" s="20"/>
       <c r="J61" s="159">
@@ -18857,18 +19139,18 @@
       </c>
       <c r="K61" s="21"/>
       <c r="L61" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M61" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="43.5" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>12</v>
@@ -18886,7 +19168,7 @@
         <v>1</v>
       </c>
       <c r="H62" s="118" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="I62" s="20"/>
       <c r="J62" s="159">
@@ -18894,18 +19176,18 @@
       </c>
       <c r="K62" s="21"/>
       <c r="L62" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="43.5" customHeight="1">
       <c r="A63" s="8" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>57</v>
@@ -18923,7 +19205,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="175" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I63" s="20"/>
       <c r="J63" s="159">
@@ -18931,18 +19213,18 @@
       </c>
       <c r="K63" s="21"/>
       <c r="L63" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="43.5" customHeight="1">
       <c r="A64" s="8" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>57</v>
@@ -18960,7 +19242,7 @@
         <v>1</v>
       </c>
       <c r="H64" s="175" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I64" s="20"/>
       <c r="J64" s="159">
@@ -18968,18 +19250,18 @@
       </c>
       <c r="K64" s="21"/>
       <c r="L64" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M64" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="53.1" customHeight="1">
       <c r="A65" s="8" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>12</v>
@@ -18997,7 +19279,7 @@
         <v>1</v>
       </c>
       <c r="H65" s="175" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I65" s="20"/>
       <c r="J65" s="159">
@@ -19005,18 +19287,18 @@
       </c>
       <c r="K65" s="21"/>
       <c r="L65" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M65" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="53.1" customHeight="1">
       <c r="A66" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>57</v>
@@ -19034,7 +19316,7 @@
         <v>1</v>
       </c>
       <c r="H66" s="172" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="I66" s="20"/>
       <c r="J66" s="159">
@@ -19042,18 +19324,18 @@
       </c>
       <c r="K66" s="21"/>
       <c r="L66" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M66" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="53.1" customHeight="1">
       <c r="A67" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>12</v>
@@ -19071,7 +19353,7 @@
         <v>1</v>
       </c>
       <c r="H67" s="172" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="I67" s="20"/>
       <c r="J67" s="159">
@@ -19079,18 +19361,18 @@
       </c>
       <c r="K67" s="21"/>
       <c r="L67" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="53.1" customHeight="1">
       <c r="A68" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>57</v>
@@ -19108,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="172" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I68" s="20"/>
       <c r="J68" s="159">
@@ -19116,18 +19398,18 @@
       </c>
       <c r="K68" s="21"/>
       <c r="L68" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="53.1" customHeight="1">
       <c r="A69" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>12</v>
@@ -19145,7 +19427,7 @@
         <v>0</v>
       </c>
       <c r="H69" s="172" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I69" s="20"/>
       <c r="J69" s="159">
@@ -19153,18 +19435,18 @@
       </c>
       <c r="K69" s="21"/>
       <c r="L69" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M69" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="53.1" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>57</v>
@@ -19182,7 +19464,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="172" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I70" s="20"/>
       <c r="J70" s="159">
@@ -19190,18 +19472,18 @@
       </c>
       <c r="K70" s="21"/>
       <c r="L70" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M70" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="53.1" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>18</v>
@@ -19219,7 +19501,7 @@
         <v>1</v>
       </c>
       <c r="H71" s="172" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I71" s="20"/>
       <c r="J71" s="164">
@@ -19227,18 +19509,18 @@
       </c>
       <c r="K71" s="21"/>
       <c r="L71" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M71" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="53.1" customHeight="1">
       <c r="A72" s="8" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>12</v>
@@ -19254,7 +19536,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="118" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I72" s="20"/>
       <c r="J72" s="159">
@@ -19262,18 +19544,18 @@
       </c>
       <c r="K72" s="21"/>
       <c r="L72" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M72" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="53.1" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>57</v>
@@ -19291,7 +19573,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="118" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I73" s="11"/>
       <c r="J73" s="159">
@@ -19299,18 +19581,18 @@
       </c>
       <c r="K73" s="160"/>
       <c r="L73" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M73" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="53.1" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>57</v>
@@ -19328,7 +19610,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="118" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="159">
@@ -19336,15 +19618,15 @@
       </c>
       <c r="K74" s="160"/>
       <c r="L74" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M74" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="62.65" customHeight="1">
       <c r="A75" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B75" s="8" t="s">
         <v>186</v>
@@ -19365,7 +19647,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="172" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I75" s="11"/>
       <c r="J75" s="159">
@@ -19373,15 +19655,15 @@
       </c>
       <c r="K75" s="160"/>
       <c r="L75" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M75" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="61.5" customHeight="1">
       <c r="A76" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>187</v>
@@ -19402,7 +19684,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="172" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I76" s="20"/>
       <c r="J76" s="159">
@@ -19410,15 +19692,15 @@
       </c>
       <c r="K76" s="21"/>
       <c r="L76" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M76" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="61.5" customHeight="1">
       <c r="A77" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B77" s="8" t="s">
         <v>188</v>
@@ -19439,7 +19721,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="172" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I77" s="20"/>
       <c r="J77" s="159">
@@ -19447,15 +19729,15 @@
       </c>
       <c r="K77" s="21"/>
       <c r="L77" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M77" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="49.15" customHeight="1">
       <c r="A78" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>189</v>
@@ -19476,7 +19758,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="172" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I78" s="20"/>
       <c r="J78" s="159">
@@ -19484,15 +19766,15 @@
       </c>
       <c r="K78" s="21"/>
       <c r="L78" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="37.5">
       <c r="A79" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B79" s="8" t="s">
         <v>190</v>
@@ -19513,7 +19795,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="172" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I79" s="20"/>
       <c r="J79" s="159">
@@ -19521,18 +19803,18 @@
       </c>
       <c r="K79" s="21"/>
       <c r="L79" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M79" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="45.6" customHeight="1">
       <c r="A80" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>12</v>
@@ -19550,7 +19832,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="118" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I80" s="20"/>
       <c r="J80" s="159">
@@ -19558,18 +19840,18 @@
       </c>
       <c r="K80" s="21"/>
       <c r="L80" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M80" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="37.5">
       <c r="A81" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>12</v>
@@ -19585,7 +19867,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="118" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I81" s="20"/>
       <c r="J81" s="159">
@@ -19593,16 +19875,16 @@
       </c>
       <c r="K81" s="21"/>
       <c r="L81" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M81" s="11"/>
     </row>
     <row r="82" spans="1:13" ht="41.65" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>57</v>
@@ -19620,7 +19902,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="172" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I82" s="20"/>
       <c r="J82" s="159">
@@ -19628,18 +19910,18 @@
       </c>
       <c r="K82" s="21"/>
       <c r="L82" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M82" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="45.6" customHeight="1">
       <c r="A83" s="8" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>57</v>
@@ -19657,7 +19939,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="118" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8">
@@ -19669,10 +19951,10 @@
     </row>
     <row r="84" spans="1:13" ht="37.5">
       <c r="A84" s="8" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>57</v>
@@ -19690,7 +19972,7 @@
         <v>1</v>
       </c>
       <c r="H84" s="118" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8">
@@ -19702,10 +19984,10 @@
     </row>
     <row r="85" spans="1:13" ht="43.15" customHeight="1">
       <c r="A85" s="8" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>57</v>
@@ -19723,7 +20005,7 @@
         <v>1</v>
       </c>
       <c r="H85" s="118" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8">
@@ -19735,10 +20017,10 @@
     </row>
     <row r="86" spans="1:13" ht="43.15" customHeight="1">
       <c r="A86" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>513</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>518</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>57</v>
@@ -19756,7 +20038,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="118" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8">
@@ -19768,10 +20050,10 @@
     </row>
     <row r="87" spans="1:13" ht="43.15" customHeight="1">
       <c r="A87" s="8" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>12</v>
@@ -19785,7 +20067,7 @@
       <c r="F87" s="167"/>
       <c r="G87" s="167"/>
       <c r="H87" s="118" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8">
@@ -19797,10 +20079,10 @@
     </row>
     <row r="88" spans="1:13" ht="43.15" customHeight="1">
       <c r="A88" s="8" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>12</v>
@@ -19818,7 +20100,7 @@
         <v>1</v>
       </c>
       <c r="H88" s="118" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8">
@@ -19830,10 +20112,10 @@
     </row>
     <row r="89" spans="1:13" ht="43.15" customHeight="1">
       <c r="A89" s="8" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>12</v>
@@ -19851,7 +20133,7 @@
         <v>1</v>
       </c>
       <c r="H89" s="118" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8">
@@ -19863,10 +20145,10 @@
     </row>
     <row r="90" spans="1:13" ht="43.15" customHeight="1">
       <c r="A90" s="8" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>12</v>
@@ -19884,7 +20166,7 @@
         <v>1</v>
       </c>
       <c r="H90" s="118" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8">
@@ -19896,10 +20178,10 @@
     </row>
     <row r="91" spans="1:13" ht="43.15" customHeight="1">
       <c r="A91" s="8" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>12</v>
@@ -19917,7 +20199,7 @@
         <v>1</v>
       </c>
       <c r="H91" s="118" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8">
@@ -19929,10 +20211,10 @@
     </row>
     <row r="92" spans="1:13" ht="42.6" customHeight="1">
       <c r="A92" s="8" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>12</v>
@@ -19950,7 +20232,7 @@
         <v>1</v>
       </c>
       <c r="H92" s="118" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8">
@@ -19962,10 +20244,10 @@
     </row>
     <row r="93" spans="1:13" ht="35.65" customHeight="1">
       <c r="A93" s="8" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>12</v>
@@ -19983,7 +20265,7 @@
         <v>1</v>
       </c>
       <c r="H93" s="175" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I93" s="20"/>
       <c r="J93" s="159">
@@ -19991,18 +20273,18 @@
       </c>
       <c r="K93" s="21"/>
       <c r="L93" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M93" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="59.65" customHeight="1">
       <c r="A94" s="8" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>12</v>
@@ -20020,7 +20302,7 @@
         <v>1</v>
       </c>
       <c r="H94" s="175" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="I94" s="20"/>
       <c r="J94" s="159">
@@ -20028,18 +20310,18 @@
       </c>
       <c r="K94" s="21"/>
       <c r="L94" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M94" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="59.65" customHeight="1">
       <c r="A95" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>57</v>
@@ -20057,7 +20339,7 @@
         <v>1</v>
       </c>
       <c r="H95" s="178" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>54</v>
@@ -20068,15 +20350,15 @@
       <c r="K95" s="160"/>
       <c r="L95" s="8"/>
       <c r="M95" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="59.65" customHeight="1">
       <c r="A96" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>57</v>
@@ -20094,7 +20376,7 @@
         <v>1</v>
       </c>
       <c r="H96" s="178" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I96" s="11" t="s">
         <v>54</v>
@@ -20105,15 +20387,15 @@
       <c r="K96" s="160"/>
       <c r="L96" s="8"/>
       <c r="M96" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="59.65" customHeight="1">
       <c r="A97" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>57</v>
@@ -20131,7 +20413,7 @@
         <v>1</v>
       </c>
       <c r="H97" s="178" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>54</v>
@@ -20142,15 +20424,15 @@
       <c r="K97" s="160"/>
       <c r="L97" s="8"/>
       <c r="M97" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="59.65" customHeight="1">
       <c r="A98" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>57</v>
@@ -20168,7 +20450,7 @@
         <v>1</v>
       </c>
       <c r="H98" s="178" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>54</v>
@@ -20179,15 +20461,15 @@
       <c r="K98" s="160"/>
       <c r="L98" s="8"/>
       <c r="M98" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="59.65" customHeight="1">
       <c r="A99" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>389</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>394</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>57</v>
@@ -20205,7 +20487,7 @@
         <v>1</v>
       </c>
       <c r="H99" s="178" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I99" s="11" t="s">
         <v>54</v>
@@ -20216,15 +20498,15 @@
       <c r="K99" s="160"/>
       <c r="L99" s="8"/>
       <c r="M99" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="59.65" customHeight="1">
       <c r="A100" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>57</v>
@@ -20242,7 +20524,7 @@
         <v>1</v>
       </c>
       <c r="H100" s="178" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I100" s="11" t="s">
         <v>54</v>
@@ -20253,15 +20535,15 @@
       <c r="K100" s="160"/>
       <c r="L100" s="8"/>
       <c r="M100" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="37.5">
       <c r="A101" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>57</v>
@@ -20279,7 +20561,7 @@
         <v>1</v>
       </c>
       <c r="H101" s="178" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I101" s="11" t="s">
         <v>54</v>
@@ -20290,15 +20572,15 @@
       <c r="K101" s="162"/>
       <c r="L101" s="8"/>
       <c r="M101" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="37.5">
       <c r="A102" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>57</v>
@@ -20316,7 +20598,7 @@
         <v>1</v>
       </c>
       <c r="H102" s="178" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I102" s="11" t="s">
         <v>54</v>
@@ -20327,15 +20609,15 @@
       <c r="K102" s="162"/>
       <c r="L102" s="8"/>
       <c r="M102" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="37.5">
       <c r="A103" s="8" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>57</v>
@@ -20353,7 +20635,7 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="H103" s="178" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I103" s="11" t="s">
         <v>54</v>
@@ -20364,15 +20646,15 @@
       <c r="K103" s="162"/>
       <c r="L103" s="8"/>
       <c r="M103" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="37.5">
       <c r="A104" s="8" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>57</v>
@@ -20390,7 +20672,7 @@
         <v>1</v>
       </c>
       <c r="H104" s="172" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="I104" s="8" t="s">
         <v>54</v>
@@ -20400,18 +20682,18 @@
       </c>
       <c r="K104" s="8"/>
       <c r="L104" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M104" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="37.5">
       <c r="A105" s="8" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>57</v>
@@ -20429,7 +20711,7 @@
         <v>1</v>
       </c>
       <c r="H105" s="172" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="I105" s="8" t="s">
         <v>54</v>
@@ -20439,18 +20721,18 @@
       </c>
       <c r="K105" s="8"/>
       <c r="L105" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="56.25">
       <c r="A106" s="8" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>57</v>
@@ -20468,7 +20750,7 @@
         <v>1</v>
       </c>
       <c r="H106" s="172" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="I106" s="8" t="s">
         <v>54</v>
@@ -20478,18 +20760,18 @@
       </c>
       <c r="K106" s="21"/>
       <c r="L106" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="37.5">
       <c r="A107" s="8" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>12</v>
@@ -20507,7 +20789,7 @@
         <v>1</v>
       </c>
       <c r="H107" s="175" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="I107" s="8" t="s">
         <v>54</v>
@@ -20517,18 +20799,18 @@
       </c>
       <c r="K107" s="21"/>
       <c r="L107" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="46.5" customHeight="1">
       <c r="A108" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>12</v>
@@ -20546,7 +20828,7 @@
         <v>0.8</v>
       </c>
       <c r="H108" s="175" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I108" s="11"/>
       <c r="J108" s="159">
@@ -20554,18 +20836,18 @@
       </c>
       <c r="K108" s="162"/>
       <c r="L108" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M108" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="37.5">
       <c r="A109" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>12</v>
@@ -20583,7 +20865,7 @@
         <v>1</v>
       </c>
       <c r="H109" s="172" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I109" s="11"/>
       <c r="J109" s="159">
@@ -20591,18 +20873,18 @@
       </c>
       <c r="K109" s="162"/>
       <c r="L109" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M109" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="37.5">
       <c r="A110" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>12</v>
@@ -20620,7 +20902,7 @@
         <v>1</v>
       </c>
       <c r="H110" s="172" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I110" s="11"/>
       <c r="J110" s="159">
@@ -20628,18 +20910,18 @@
       </c>
       <c r="K110" s="162"/>
       <c r="L110" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M110" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="37.5">
       <c r="A111" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>12</v>
@@ -20657,7 +20939,7 @@
         <v>1</v>
       </c>
       <c r="H111" s="172" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I111" s="11"/>
       <c r="J111" s="159">
@@ -20665,18 +20947,18 @@
       </c>
       <c r="K111" s="162"/>
       <c r="L111" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M111" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="37.5">
       <c r="A112" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>12</v>
@@ -20694,7 +20976,7 @@
         <v>1</v>
       </c>
       <c r="H112" s="172" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="159">
@@ -20702,18 +20984,18 @@
       </c>
       <c r="K112" s="162"/>
       <c r="L112" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M112" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="37.5">
       <c r="A113" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C113" s="8" t="s">
         <v>12</v>
@@ -20731,7 +21013,7 @@
         <v>1</v>
       </c>
       <c r="H113" s="172" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I113" s="11"/>
       <c r="J113" s="159">
@@ -20739,18 +21021,18 @@
       </c>
       <c r="K113" s="162"/>
       <c r="L113" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M113" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="37.5">
       <c r="A114" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>12</v>
@@ -20768,7 +21050,7 @@
         <v>1</v>
       </c>
       <c r="H114" s="172" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I114" s="11"/>
       <c r="J114" s="159">
@@ -20776,18 +21058,18 @@
       </c>
       <c r="K114" s="160"/>
       <c r="L114" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M114" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="37.5">
       <c r="A115" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C115" s="8" t="s">
         <v>12</v>
@@ -20805,7 +21087,7 @@
         <v>1</v>
       </c>
       <c r="H115" s="172" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I115" s="11"/>
       <c r="J115" s="159">
@@ -20813,18 +21095,18 @@
       </c>
       <c r="K115" s="160"/>
       <c r="L115" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M115" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="42" customHeight="1">
       <c r="A116" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C116" s="8" t="s">
         <v>12</v>
@@ -20842,7 +21124,7 @@
         <v>1</v>
       </c>
       <c r="H116" s="172" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I116" s="11"/>
       <c r="J116" s="159">
@@ -20850,18 +21132,18 @@
       </c>
       <c r="K116" s="160"/>
       <c r="L116" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M116" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="37.5">
       <c r="A117" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>12</v>
@@ -20879,7 +21161,7 @@
         <v>1</v>
       </c>
       <c r="H117" s="172" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I117" s="11"/>
       <c r="J117" s="159">
@@ -20887,18 +21169,18 @@
       </c>
       <c r="K117" s="160"/>
       <c r="L117" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M117" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="37.5">
       <c r="A118" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C118" s="8" t="s">
         <v>57</v>
@@ -20916,7 +21198,7 @@
         <v>1</v>
       </c>
       <c r="H118" s="172" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I118" s="11"/>
       <c r="J118" s="159">
@@ -20924,18 +21206,18 @@
       </c>
       <c r="K118" s="160"/>
       <c r="L118" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M118" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="37.5">
       <c r="A119" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C119" s="8" t="s">
         <v>57</v>
@@ -20953,7 +21235,7 @@
         <v>1</v>
       </c>
       <c r="H119" s="172" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I119" s="11"/>
       <c r="J119" s="159">
@@ -20961,18 +21243,18 @@
       </c>
       <c r="K119" s="160"/>
       <c r="L119" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M119" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="37.5">
       <c r="A120" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C120" s="8" t="s">
         <v>57</v>
@@ -20990,7 +21272,7 @@
         <v>1</v>
       </c>
       <c r="H120" s="172" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I120" s="11"/>
       <c r="J120" s="159">
@@ -20998,18 +21280,18 @@
       </c>
       <c r="K120" s="160"/>
       <c r="L120" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M120" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="39" customHeight="1">
       <c r="A121" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>57</v>
@@ -21027,7 +21309,7 @@
         <v>1</v>
       </c>
       <c r="H121" s="172" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I121" s="11"/>
       <c r="J121" s="159">
@@ -21035,18 +21317,18 @@
       </c>
       <c r="K121" s="160"/>
       <c r="L121" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M121" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="37.5">
       <c r="A122" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>12</v>
@@ -21064,7 +21346,7 @@
         <v>1</v>
       </c>
       <c r="H122" s="172" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I122" s="11" t="s">
         <v>54</v>
@@ -21074,18 +21356,18 @@
       </c>
       <c r="K122" s="162"/>
       <c r="L122" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M122" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="37.5">
       <c r="A123" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>57</v>
@@ -21103,7 +21385,7 @@
         <v>1</v>
       </c>
       <c r="H123" s="175" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I123" s="11" t="s">
         <v>54</v>
@@ -21113,18 +21395,18 @@
       </c>
       <c r="K123" s="162"/>
       <c r="L123" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M123" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="37.5">
       <c r="A124" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C124" s="8" t="s">
         <v>57</v>
@@ -21142,7 +21424,7 @@
         <v>1</v>
       </c>
       <c r="H124" s="175" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I124" s="11" t="s">
         <v>54</v>
@@ -21152,18 +21434,18 @@
       </c>
       <c r="K124" s="162"/>
       <c r="L124" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M124" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="37.5">
       <c r="A125" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>12</v>
@@ -21181,7 +21463,7 @@
         <v>0.3</v>
       </c>
       <c r="H125" s="172" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I125" s="11" t="s">
         <v>54</v>
@@ -21191,18 +21473,18 @@
       </c>
       <c r="K125" s="162"/>
       <c r="L125" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M125" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="37.5">
       <c r="A126" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>18</v>
@@ -21220,7 +21502,7 @@
         <v>1</v>
       </c>
       <c r="H126" s="172" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I126" s="11" t="s">
         <v>54</v>
@@ -21230,18 +21512,18 @@
       </c>
       <c r="K126" s="162"/>
       <c r="L126" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M126" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="37.5">
       <c r="A127" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>57</v>
@@ -21259,7 +21541,7 @@
         <v>1</v>
       </c>
       <c r="H127" s="172" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I127" s="11" t="s">
         <v>54</v>
@@ -21269,18 +21551,18 @@
       </c>
       <c r="K127" s="162"/>
       <c r="L127" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M127" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="37.5">
       <c r="A128" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B128" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>365</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>57</v>
@@ -21298,7 +21580,7 @@
         <v>1</v>
       </c>
       <c r="H128" s="172" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="I128" s="11" t="s">
         <v>54</v>
@@ -21308,18 +21590,18 @@
       </c>
       <c r="K128" s="162"/>
       <c r="L128" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M128" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="37.5">
       <c r="A129" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>57</v>
@@ -21337,7 +21619,7 @@
         <v>1</v>
       </c>
       <c r="H129" s="172" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="I129" s="11" t="s">
         <v>54</v>
@@ -21347,18 +21629,18 @@
       </c>
       <c r="K129" s="162"/>
       <c r="L129" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M129" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="37.5">
       <c r="A130" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>57</v>
@@ -21376,7 +21658,7 @@
         <v>1</v>
       </c>
       <c r="H130" s="172" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I130" s="11" t="s">
         <v>54</v>
@@ -21386,18 +21668,18 @@
       </c>
       <c r="K130" s="160"/>
       <c r="L130" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M130" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="37.5">
       <c r="A131" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>57</v>
@@ -21415,7 +21697,7 @@
         <v>0.88</v>
       </c>
       <c r="H131" s="175" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I131" s="11" t="s">
         <v>54</v>
@@ -21425,18 +21707,18 @@
       </c>
       <c r="K131" s="160"/>
       <c r="L131" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M131" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="37.5">
       <c r="A132" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>12</v>
@@ -21454,7 +21736,7 @@
         <v>1</v>
       </c>
       <c r="H132" s="172" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I132" s="11" t="s">
         <v>54</v>
@@ -21464,18 +21746,18 @@
       </c>
       <c r="K132" s="160"/>
       <c r="L132" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M132" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="37.5">
       <c r="A133" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>57</v>
@@ -21493,7 +21775,7 @@
         <v>0</v>
       </c>
       <c r="H133" s="172" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I133" s="11" t="s">
         <v>54</v>
@@ -21503,18 +21785,18 @@
       </c>
       <c r="K133" s="160"/>
       <c r="L133" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M133" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="37.5">
       <c r="A134" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C134" s="8" t="s">
         <v>57</v>
@@ -21532,7 +21814,7 @@
         <v>0</v>
       </c>
       <c r="H134" s="172" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I134" s="11" t="s">
         <v>54</v>
@@ -21542,18 +21824,18 @@
       </c>
       <c r="K134" s="160"/>
       <c r="L134" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M134" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="37.5">
       <c r="A135" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C135" s="8" t="s">
         <v>57</v>
@@ -21571,7 +21853,7 @@
         <v>1</v>
       </c>
       <c r="H135" s="172" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I135" s="11" t="s">
         <v>54</v>
@@ -21581,18 +21863,18 @@
       </c>
       <c r="K135" s="160"/>
       <c r="L135" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M135" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="37.5">
       <c r="A136" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>57</v>
@@ -21610,7 +21892,7 @@
         <v>0</v>
       </c>
       <c r="H136" s="118" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I136" s="11" t="s">
         <v>54</v>
@@ -21620,18 +21902,18 @@
       </c>
       <c r="K136" s="160"/>
       <c r="L136" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M136" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="37.5">
       <c r="A137" s="8" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>57</v>
@@ -21649,7 +21931,7 @@
         <v>1</v>
       </c>
       <c r="H137" s="172" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I137" s="11" t="s">
         <v>54</v>
@@ -21659,18 +21941,18 @@
       </c>
       <c r="K137" s="160"/>
       <c r="L137" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="M137" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="37.5">
       <c r="A138" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>12</v>
@@ -21688,7 +21970,7 @@
         <v>0</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I138" s="11" t="s">
         <v>54</v>
@@ -21698,18 +21980,18 @@
       </c>
       <c r="K138" s="160"/>
       <c r="L138" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M138" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="37.5">
       <c r="A139" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C139" s="8" t="s">
         <v>12</v>
@@ -21727,7 +22009,7 @@
         <v>0</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I139" s="11" t="s">
         <v>54</v>
@@ -21737,18 +22019,18 @@
       </c>
       <c r="K139" s="160"/>
       <c r="L139" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M139" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="37.5">
       <c r="A140" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>12</v>
@@ -21766,7 +22048,7 @@
         <v>0</v>
       </c>
       <c r="H140" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I140" s="11" t="s">
         <v>54</v>
@@ -21776,18 +22058,18 @@
       </c>
       <c r="K140" s="160"/>
       <c r="L140" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M140" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="37.5">
       <c r="A141" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>12</v>
@@ -21805,7 +22087,7 @@
         <v>0</v>
       </c>
       <c r="H141" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I141" s="11" t="s">
         <v>54</v>
@@ -21815,18 +22097,18 @@
       </c>
       <c r="K141" s="160"/>
       <c r="L141" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M141" s="11" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="37.5">
       <c r="A142" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>12</v>
@@ -21844,7 +22126,7 @@
         <v>0</v>
       </c>
       <c r="H142" s="8" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="I142" s="8" t="s">
         <v>54</v>
@@ -21854,10 +22136,10 @@
       </c>
       <c r="K142" s="8"/>
       <c r="L142" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M142" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -23743,13 +24025,13 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="33" customHeight="1">
-      <c r="A43" s="184" t="s">
+      <c r="A43" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="185"/>
-      <c r="C43" s="185"/>
-      <c r="D43" s="185"/>
-      <c r="E43" s="186"/>
+      <c r="B43" s="187"/>
+      <c r="C43" s="187"/>
+      <c r="D43" s="187"/>
+      <c r="E43" s="188"/>
       <c r="F43" s="9">
         <f>SUM(F2:F42)</f>
         <v>7378.322949676779</v>
@@ -25541,7 +25823,7 @@
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A2" s="49" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>185</v>
@@ -25557,7 +25839,7 @@
       </c>
       <c r="F2" s="52"/>
       <c r="G2" s="49" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>54</v>
@@ -25567,20 +25849,20 @@
       </c>
       <c r="J2" s="63"/>
       <c r="K2" s="56" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L2" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M2" s="47"/>
       <c r="N2" s="47"/>
     </row>
     <row r="3" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A3" s="49" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>18</v>
@@ -25593,7 +25875,7 @@
       </c>
       <c r="F3" s="52"/>
       <c r="G3" s="49" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H3" s="53" t="s">
         <v>54</v>
@@ -25604,17 +25886,17 @@
       <c r="J3" s="63"/>
       <c r="K3" s="56"/>
       <c r="L3" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M3" s="47"/>
       <c r="N3" s="47"/>
     </row>
     <row r="4" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A4" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>323</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>328</v>
       </c>
       <c r="C4" s="49" t="s">
         <v>18</v>
@@ -25627,7 +25909,7 @@
       </c>
       <c r="F4" s="52"/>
       <c r="G4" s="49" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H4" s="53" t="s">
         <v>54</v>
@@ -25638,17 +25920,17 @@
       <c r="J4" s="63"/>
       <c r="K4" s="56"/>
       <c r="L4" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M4" s="47"/>
       <c r="N4" s="47"/>
     </row>
     <row r="5" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A5" s="49" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C5" s="49" t="s">
         <v>18</v>
@@ -25661,7 +25943,7 @@
       </c>
       <c r="F5" s="58"/>
       <c r="G5" s="49" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H5" s="53" t="s">
         <v>54</v>
@@ -25672,17 +25954,17 @@
       <c r="J5" s="63"/>
       <c r="K5" s="56"/>
       <c r="L5" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M5" s="47"/>
       <c r="N5" s="47"/>
     </row>
     <row r="6" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A6" s="49" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C6" s="49" t="s">
         <v>12</v>
@@ -25695,7 +25977,7 @@
       </c>
       <c r="F6" s="58"/>
       <c r="G6" s="49" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H6" s="53" t="s">
         <v>54</v>
@@ -25706,14 +25988,14 @@
       <c r="J6" s="63"/>
       <c r="K6" s="56"/>
       <c r="L6" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M6" s="47"/>
       <c r="N6" s="47"/>
     </row>
     <row r="7" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B7" s="49" t="s">
         <v>186</v>
@@ -25729,7 +26011,7 @@
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="49" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H7" s="53" t="s">
         <v>54</v>
@@ -25740,14 +26022,14 @@
       <c r="J7" s="63"/>
       <c r="K7" s="56"/>
       <c r="L7" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>
     </row>
     <row r="8" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A8" s="49" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B8" s="49" t="s">
         <v>187</v>
@@ -25763,7 +26045,7 @@
       </c>
       <c r="F8" s="58"/>
       <c r="G8" s="49" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H8" s="53" t="s">
         <v>54</v>
@@ -25774,14 +26056,14 @@
       <c r="J8" s="63"/>
       <c r="K8" s="56"/>
       <c r="L8" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M8" s="47"/>
       <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A9" s="49" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B9" s="49" t="s">
         <v>188</v>
@@ -25797,7 +26079,7 @@
       </c>
       <c r="F9" s="58"/>
       <c r="G9" s="49" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H9" s="53" t="s">
         <v>54</v>
@@ -25808,14 +26090,14 @@
       <c r="J9" s="63"/>
       <c r="K9" s="56"/>
       <c r="L9" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M9" s="47"/>
       <c r="N9" s="47"/>
     </row>
     <row r="10" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A10" s="49" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B10" s="49" t="s">
         <v>189</v>
@@ -25831,7 +26113,7 @@
       </c>
       <c r="F10" s="58"/>
       <c r="G10" s="49" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H10" s="53" t="s">
         <v>54</v>
@@ -25842,14 +26124,14 @@
       <c r="J10" s="63"/>
       <c r="K10" s="56"/>
       <c r="L10" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M10" s="47"/>
       <c r="N10" s="47"/>
     </row>
     <row r="11" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A11" s="49" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B11" s="49" t="s">
         <v>190</v>
@@ -25865,7 +26147,7 @@
       </c>
       <c r="F11" s="58"/>
       <c r="G11" s="49" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H11" s="53" t="s">
         <v>54</v>
@@ -25876,14 +26158,14 @@
       <c r="J11" s="63"/>
       <c r="K11" s="56"/>
       <c r="L11" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M11" s="47"/>
       <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A12" s="49" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B12" s="49" t="s">
         <v>191</v>
@@ -25899,7 +26181,7 @@
       </c>
       <c r="F12" s="58"/>
       <c r="G12" s="49" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H12" s="53" t="s">
         <v>54</v>
@@ -25910,14 +26192,14 @@
       <c r="J12" s="63"/>
       <c r="K12" s="56"/>
       <c r="L12" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M12" s="47"/>
       <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A13" s="49" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B13" s="49" t="s">
         <v>192</v>
@@ -25933,7 +26215,7 @@
       </c>
       <c r="F13" s="58"/>
       <c r="G13" s="49" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H13" s="53" t="s">
         <v>54</v>
@@ -25944,14 +26226,14 @@
       <c r="J13" s="63"/>
       <c r="K13" s="56"/>
       <c r="L13" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M13" s="47"/>
       <c r="N13" s="47"/>
     </row>
     <row r="14" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A14" s="49" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B14" s="49" t="s">
         <v>168</v>
@@ -25967,7 +26249,7 @@
       </c>
       <c r="F14" s="58"/>
       <c r="G14" s="49" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H14" s="53" t="s">
         <v>54</v>
@@ -25978,14 +26260,14 @@
       <c r="J14" s="63"/>
       <c r="K14" s="56"/>
       <c r="L14" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M14" s="47"/>
       <c r="N14" s="47"/>
     </row>
     <row r="15" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A15" s="49" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>193</v>
@@ -26001,7 +26283,7 @@
       </c>
       <c r="F15" s="52"/>
       <c r="G15" s="49" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H15" s="53" t="s">
         <v>54</v>
@@ -26011,17 +26293,17 @@
       </c>
       <c r="J15" s="63"/>
       <c r="K15" s="56" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L15" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M15" s="47"/>
       <c r="N15" s="47"/>
     </row>
     <row r="16" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A16" s="49" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B16" s="49" t="s">
         <v>194</v>
@@ -26037,7 +26319,7 @@
       </c>
       <c r="F16" s="61"/>
       <c r="G16" s="49" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H16" s="53" t="s">
         <v>54</v>
@@ -26047,17 +26329,17 @@
       </c>
       <c r="J16" s="63"/>
       <c r="K16" s="56" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L16" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
     </row>
     <row r="17" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A17" s="49" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B17" s="49" t="s">
         <v>195</v>
@@ -26073,7 +26355,7 @@
       </c>
       <c r="F17" s="61"/>
       <c r="G17" s="49" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H17" s="53" t="s">
         <v>54</v>
@@ -26083,17 +26365,17 @@
       </c>
       <c r="J17" s="63"/>
       <c r="K17" s="56" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L17" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M17" s="47"/>
       <c r="N17" s="47"/>
     </row>
     <row r="18" spans="1:14" s="14" customFormat="1" ht="39.6" customHeight="1">
       <c r="A18" s="49" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B18" s="49" t="s">
         <v>196</v>
@@ -26109,7 +26391,7 @@
       </c>
       <c r="F18" s="52"/>
       <c r="G18" s="49" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H18" s="53" t="s">
         <v>54</v>
@@ -26119,17 +26401,17 @@
       </c>
       <c r="J18" s="63"/>
       <c r="K18" s="56" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L18" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M18" s="47"/>
       <c r="N18" s="47"/>
     </row>
     <row r="19" spans="1:14" s="14" customFormat="1" ht="39.75" customHeight="1">
       <c r="A19" s="49" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B19" s="49" t="s">
         <v>197</v>
@@ -26145,7 +26427,7 @@
       </c>
       <c r="F19" s="52"/>
       <c r="G19" s="49" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H19" s="53" t="s">
         <v>54</v>
@@ -26155,17 +26437,17 @@
       </c>
       <c r="J19" s="63"/>
       <c r="K19" s="56" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L19" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M19" s="47"/>
       <c r="N19" s="47"/>
     </row>
     <row r="20" spans="1:14" s="14" customFormat="1" ht="39.75" customHeight="1">
       <c r="A20" s="49" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B20" s="49" t="s">
         <v>198</v>
@@ -26181,7 +26463,7 @@
       </c>
       <c r="F20" s="52"/>
       <c r="G20" s="49" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H20" s="53" t="s">
         <v>54</v>
@@ -26191,17 +26473,17 @@
       </c>
       <c r="J20" s="63"/>
       <c r="K20" s="56" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L20" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M20" s="47"/>
       <c r="N20" s="47"/>
     </row>
     <row r="21" spans="1:14" s="14" customFormat="1" ht="39.75" customHeight="1">
       <c r="A21" s="49" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B21" s="49" t="s">
         <v>199</v>
@@ -26217,7 +26499,7 @@
       </c>
       <c r="F21" s="52"/>
       <c r="G21" s="49" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H21" s="53" t="s">
         <v>54</v>
@@ -26227,17 +26509,17 @@
       </c>
       <c r="J21" s="63"/>
       <c r="K21" s="56" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L21" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M21" s="47"/>
       <c r="N21" s="47"/>
     </row>
     <row r="22" spans="1:14" s="14" customFormat="1" ht="39.75" customHeight="1">
       <c r="A22" s="49" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B22" s="49" t="s">
         <v>200</v>
@@ -26253,7 +26535,7 @@
       </c>
       <c r="F22" s="52"/>
       <c r="G22" s="49" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H22" s="53" t="s">
         <v>54</v>
@@ -26263,17 +26545,17 @@
       </c>
       <c r="J22" s="63"/>
       <c r="K22" s="56" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L22" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M22" s="47"/>
       <c r="N22" s="47"/>
     </row>
     <row r="23" spans="1:14" s="14" customFormat="1" ht="39.75" customHeight="1">
       <c r="A23" s="49" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B23" s="49" t="s">
         <v>201</v>
@@ -26289,7 +26571,7 @@
       </c>
       <c r="F23" s="52"/>
       <c r="G23" s="49" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H23" s="53" t="s">
         <v>54</v>
@@ -26299,17 +26581,17 @@
       </c>
       <c r="J23" s="63"/>
       <c r="K23" s="56" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L23" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M23" s="47"/>
       <c r="N23" s="47"/>
     </row>
     <row r="24" spans="1:14" s="14" customFormat="1" ht="39.75" customHeight="1">
       <c r="A24" s="49" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B24" s="49" t="s">
         <v>202</v>
@@ -26325,7 +26607,7 @@
       </c>
       <c r="F24" s="61"/>
       <c r="G24" s="49" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H24" s="53" t="s">
         <v>54</v>
@@ -26338,17 +26620,17 @@
         <v>75</v>
       </c>
       <c r="L24" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
     </row>
     <row r="25" spans="1:14" s="14" customFormat="1" ht="39.75" customHeight="1">
       <c r="A25" s="49" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B25" s="49" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C25" s="49" t="s">
         <v>57</v>
@@ -26361,7 +26643,7 @@
       </c>
       <c r="F25" s="61"/>
       <c r="G25" s="49" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H25" s="53" t="s">
         <v>54</v>
@@ -26374,17 +26656,17 @@
         <v>75</v>
       </c>
       <c r="L25" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M25" s="47"/>
       <c r="N25" s="47"/>
     </row>
     <row r="26" spans="1:14" s="14" customFormat="1" ht="39.75" customHeight="1">
       <c r="A26" s="49" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C26" s="49" t="s">
         <v>57</v>
@@ -26397,7 +26679,7 @@
       </c>
       <c r="F26" s="61"/>
       <c r="G26" s="49" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H26" s="53" t="s">
         <v>54</v>
@@ -26410,14 +26692,14 @@
         <v>75</v>
       </c>
       <c r="L26" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M26" s="47"/>
       <c r="N26" s="47"/>
     </row>
     <row r="27" spans="1:14" s="14" customFormat="1" ht="39.75" customHeight="1">
       <c r="A27" s="49" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B27" s="49" t="s">
         <v>203</v>
@@ -26433,7 +26715,7 @@
       </c>
       <c r="F27" s="61"/>
       <c r="G27" s="49" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H27" s="53" t="s">
         <v>54</v>
@@ -26446,14 +26728,14 @@
         <v>75</v>
       </c>
       <c r="L27" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M27" s="47"/>
       <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14" s="14" customFormat="1" ht="39.75" customHeight="1">
       <c r="A28" s="49" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B28" s="49" t="s">
         <v>204</v>
@@ -26469,7 +26751,7 @@
       </c>
       <c r="F28" s="61"/>
       <c r="G28" s="49" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H28" s="53" t="s">
         <v>54</v>
@@ -26482,14 +26764,14 @@
         <v>75</v>
       </c>
       <c r="L28" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M28" s="47"/>
       <c r="N28" s="47"/>
     </row>
     <row r="29" spans="1:14" s="14" customFormat="1" ht="39.75" customHeight="1">
       <c r="A29" s="49" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B29" s="49" t="s">
         <v>205</v>
@@ -26505,7 +26787,7 @@
       </c>
       <c r="F29" s="61"/>
       <c r="G29" s="49" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H29" s="53" t="s">
         <v>54</v>
@@ -26518,14 +26800,14 @@
         <v>75</v>
       </c>
       <c r="L29" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M29" s="47"/>
       <c r="N29" s="47"/>
     </row>
     <row r="30" spans="1:14" s="14" customFormat="1" ht="39.75" customHeight="1">
       <c r="A30" s="49" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B30" s="49" t="s">
         <v>206</v>
@@ -26541,7 +26823,7 @@
       </c>
       <c r="F30" s="61"/>
       <c r="G30" s="49" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H30" s="53" t="s">
         <v>54</v>
@@ -26554,7 +26836,7 @@
         <v>75</v>
       </c>
       <c r="L30" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M30" s="47"/>
       <c r="N30" s="47"/>
@@ -26577,7 +26859,7 @@
       </c>
       <c r="F31" s="52"/>
       <c r="G31" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H31" s="53" t="s">
         <v>54</v>
@@ -26590,7 +26872,7 @@
         <v>75</v>
       </c>
       <c r="L31" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M31" s="47"/>
       <c r="N31" s="47"/>
@@ -26613,7 +26895,7 @@
       </c>
       <c r="F32" s="52"/>
       <c r="G32" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H32" s="53" t="s">
         <v>54</v>
@@ -26626,7 +26908,7 @@
         <v>75</v>
       </c>
       <c r="L32" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M32" s="47"/>
       <c r="N32" s="47"/>
@@ -26649,7 +26931,7 @@
       </c>
       <c r="F33" s="52"/>
       <c r="G33" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H33" s="53" t="s">
         <v>54</v>
@@ -26662,7 +26944,7 @@
         <v>75</v>
       </c>
       <c r="L33" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M33" s="47"/>
       <c r="N33" s="47"/>
@@ -26685,7 +26967,7 @@
       </c>
       <c r="F34" s="52"/>
       <c r="G34" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H34" s="53" t="s">
         <v>54</v>
@@ -26698,7 +26980,7 @@
         <v>75</v>
       </c>
       <c r="L34" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M34" s="47"/>
       <c r="N34" s="47"/>
@@ -26721,7 +27003,7 @@
       </c>
       <c r="F35" s="57"/>
       <c r="G35" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H35" s="53" t="s">
         <v>54</v>
@@ -26734,7 +27016,7 @@
         <v>75</v>
       </c>
       <c r="L35" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M35" s="47"/>
       <c r="N35" s="47"/>
@@ -26757,7 +27039,7 @@
       </c>
       <c r="F36" s="58"/>
       <c r="G36" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H36" s="53" t="s">
         <v>54</v>
@@ -26770,7 +27052,7 @@
         <v>75</v>
       </c>
       <c r="L36" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M36" s="47"/>
       <c r="N36" s="47"/>
@@ -26793,7 +27075,7 @@
       </c>
       <c r="F37" s="60"/>
       <c r="G37" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H37" s="53" t="s">
         <v>54</v>
@@ -26806,7 +27088,7 @@
         <v>75</v>
       </c>
       <c r="L37" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M37" s="47"/>
       <c r="N37" s="47"/>
@@ -26829,7 +27111,7 @@
       </c>
       <c r="F38" s="60"/>
       <c r="G38" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H38" s="53" t="s">
         <v>54</v>
@@ -26842,7 +27124,7 @@
         <v>75</v>
       </c>
       <c r="L38" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M38" s="47"/>
       <c r="N38" s="47"/>
@@ -26865,7 +27147,7 @@
       </c>
       <c r="F39" s="60"/>
       <c r="G39" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H39" s="53" t="s">
         <v>54</v>
@@ -26878,7 +27160,7 @@
         <v>75</v>
       </c>
       <c r="L39" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M39" s="47"/>
       <c r="N39" s="47"/>
@@ -26901,7 +27183,7 @@
       </c>
       <c r="F40" s="61"/>
       <c r="G40" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H40" s="53" t="s">
         <v>54</v>
@@ -26914,7 +27196,7 @@
         <v>75</v>
       </c>
       <c r="L40" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M40" s="47"/>
       <c r="N40" s="47"/>
@@ -26937,7 +27219,7 @@
       </c>
       <c r="F41" s="61"/>
       <c r="G41" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H41" s="53" t="s">
         <v>54</v>
@@ -26950,7 +27232,7 @@
         <v>75</v>
       </c>
       <c r="L41" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M41" s="47"/>
       <c r="N41" s="47"/>
@@ -26973,7 +27255,7 @@
       </c>
       <c r="F42" s="61"/>
       <c r="G42" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H42" s="53" t="s">
         <v>54</v>
@@ -26986,7 +27268,7 @@
         <v>75</v>
       </c>
       <c r="L42" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M42" s="47"/>
       <c r="N42" s="47"/>
@@ -27009,7 +27291,7 @@
       </c>
       <c r="F43" s="60"/>
       <c r="G43" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H43" s="53" t="s">
         <v>54</v>
@@ -27022,7 +27304,7 @@
         <v>75</v>
       </c>
       <c r="L43" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M43" s="47"/>
       <c r="N43" s="47"/>
@@ -27045,7 +27327,7 @@
       </c>
       <c r="F44" s="61"/>
       <c r="G44" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H44" s="53" t="s">
         <v>54</v>
@@ -27058,7 +27340,7 @@
         <v>75</v>
       </c>
       <c r="L44" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M44" s="47"/>
       <c r="N44" s="47"/>
@@ -27081,7 +27363,7 @@
       </c>
       <c r="F45" s="52"/>
       <c r="G45" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H45" s="53" t="s">
         <v>54</v>
@@ -27094,7 +27376,7 @@
         <v>75</v>
       </c>
       <c r="L45" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M45" s="47"/>
       <c r="N45" s="47"/>
@@ -27117,7 +27399,7 @@
       </c>
       <c r="F46" s="52"/>
       <c r="G46" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H46" s="53" t="s">
         <v>54</v>
@@ -27130,7 +27412,7 @@
         <v>75</v>
       </c>
       <c r="L46" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M46" s="47"/>
       <c r="N46" s="47"/>
@@ -27153,7 +27435,7 @@
       </c>
       <c r="F47" s="61"/>
       <c r="G47" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H47" s="53" t="s">
         <v>54</v>
@@ -27166,7 +27448,7 @@
         <v>75</v>
       </c>
       <c r="L47" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M47" s="47"/>
       <c r="N47" s="47"/>
@@ -27189,7 +27471,7 @@
       </c>
       <c r="F48" s="61"/>
       <c r="G48" s="49" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H48" s="53" t="s">
         <v>54</v>
@@ -27202,7 +27484,7 @@
         <v>75</v>
       </c>
       <c r="L48" s="53" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M48" s="47"/>
       <c r="N48" s="47"/>
@@ -27234,7 +27516,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27246,13 +27528,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="170" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B1" s="170" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -27260,7 +27542,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="179" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C2" s="51">
         <v>51.09</v>
@@ -27271,7 +27553,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="179" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C3" s="51">
         <v>347.71</v>
@@ -27282,7 +27564,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="179" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C4" s="51">
         <v>625.92999999999995</v>
@@ -27293,7 +27575,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="179" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C5" s="51">
         <v>714.69</v>
@@ -27304,7 +27586,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="179" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C6" s="51">
         <v>575.15</v>
@@ -27315,7 +27597,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="179" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C7" s="51">
         <v>837.25</v>
@@ -27326,7 +27608,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="181" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C8" s="180">
         <v>565.07000000000005</v>
@@ -27337,7 +27619,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="179" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C9" s="170">
         <v>0</v>
@@ -27348,7 +27630,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="181" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C10" s="180">
         <v>712.33</v>
@@ -27359,7 +27641,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="181" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C11" s="51">
         <v>409.68</v>
@@ -27370,7 +27652,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="181" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C12" s="51">
         <v>522.86</v>
@@ -27381,7 +27663,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="179" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C13" s="51">
         <v>705.59</v>
@@ -27392,7 +27674,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="181" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C14" s="182">
         <v>647.20000000000005</v>
@@ -27403,7 +27685,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="181" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C15" s="51">
         <v>806.89</v>
@@ -27414,7 +27696,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="181" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C16" s="51">
         <v>333.94</v>
@@ -27425,7 +27707,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="181" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C17" s="51">
         <v>721.62</v>
@@ -27436,7 +27718,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="181" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C18" s="180">
         <v>1451.95</v>
@@ -27447,7 +27729,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="179" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C19" s="51">
         <v>711.02</v>
@@ -27458,7 +27740,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="181" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C20" s="180">
         <v>331.35</v>
@@ -27469,7 +27751,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="179" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C21" s="51">
         <v>501.12</v>
@@ -27480,7 +27762,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="179" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C22" s="51">
         <v>268.24</v>
@@ -27491,7 +27773,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="181" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C23" s="51">
         <v>281.05</v>
@@ -27502,7 +27784,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="179" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C24" s="183">
         <v>720.33</v>
@@ -27513,7 +27795,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="181" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C25" s="180">
         <v>890.42</v>
@@ -27524,7 +27806,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="181" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C26" s="51">
         <v>749.37</v>
@@ -27535,7 +27817,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="179" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C27" s="170">
         <v>0</v>
@@ -27546,7 +27828,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="181" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C28" s="51">
         <v>319.33</v>
@@ -27557,7 +27839,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="179" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C29" s="170">
         <v>0</v>
@@ -27568,7 +27850,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="179" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C30" s="170">
         <v>0</v>
@@ -27579,7 +27861,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="179" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C31" s="170">
         <v>0</v>
@@ -27590,7 +27872,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="179" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C32" s="170">
         <v>0</v>
@@ -27601,7 +27883,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="179" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C33" s="170">
         <v>0</v>
@@ -27612,7 +27894,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="179" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C34" s="170">
         <v>0</v>
@@ -27623,7 +27905,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="179" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C35" s="170">
         <v>0</v>
@@ -27634,7 +27916,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="179" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C36" s="170">
         <v>0</v>
@@ -27645,7 +27927,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="179" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C37" s="170">
         <v>0</v>
@@ -27656,7 +27938,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="179" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C38" s="170">
         <v>0</v>
@@ -27667,7 +27949,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="179" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C39" s="170">
         <v>0</v>
@@ -29530,12 +29812,12 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A43" s="187" t="s">
+      <c r="A43" s="189" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="187"/>
-      <c r="C43" s="187"/>
-      <c r="D43" s="187"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
       <c r="E43" s="19"/>
       <c r="F43" s="142">
         <f>SUM(F2:F42)</f>
@@ -29586,23 +29868,23 @@
       <c r="D45" s="149"/>
       <c r="E45" s="134"/>
       <c r="F45" s="134" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G45" s="134"/>
       <c r="H45" s="134" t="s">
+        <v>337</v>
+      </c>
+      <c r="I45" s="134" t="s">
+        <v>338</v>
+      </c>
+      <c r="J45" s="134" t="s">
+        <v>339</v>
+      </c>
+      <c r="K45" s="134" t="s">
+        <v>340</v>
+      </c>
+      <c r="L45" s="134" t="s">
         <v>342</v>
-      </c>
-      <c r="I45" s="134" t="s">
-        <v>343</v>
-      </c>
-      <c r="J45" s="134" t="s">
-        <v>344</v>
-      </c>
-      <c r="K45" s="134" t="s">
-        <v>345</v>
-      </c>
-      <c r="L45" s="134" t="s">
-        <v>347</v>
       </c>
       <c r="M45" s="151"/>
       <c r="N45" s="31"/>
